--- a/public/template/order_template.xlsx
+++ b/public/template/order_template.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web development\www\eotc-dti-hybrid\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web development\www\penelco\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="600" windowWidth="24000" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,48 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Payor</t>
-  </si>
-  <si>
-    <t>Particulars</t>
-  </si>
-  <si>
-    <t>Payment Category</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Bill Month</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Contact Number</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Reference/Transaction/Serial Number</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Department Code</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,9 +63,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,25 +88,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,7 +143,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -163,7 +155,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -210,23 +202,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,67 +389,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>